--- a/ClassifierTesterResults/Batch/hfmovement-Parsed_Results_nn.xlsx
+++ b/ClassifierTesterResults/Batch/hfmovement-Parsed_Results_nn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="759">
   <si>
     <t>layout</t>
   </si>
@@ -133,34 +133,34 @@
     <t xml:space="preserve">100 </t>
   </si>
   <si>
-    <t>0.6289910600255428</t>
-  </si>
-  <si>
-    <t>0.6576271186440678</t>
-  </si>
-  <si>
-    <t>0.6606047995561104</t>
-  </si>
-  <si>
-    <t>0.6986659070407825</t>
-  </si>
-  <si>
-    <t>0.6726423067362663</t>
-  </si>
-  <si>
-    <t>0.6988514512043063</t>
-  </si>
-  <si>
-    <t>0.7109448911759566</t>
-  </si>
-  <si>
-    <t>0.7066762687161501</t>
-  </si>
-  <si>
-    <t>0.7062646289412089</t>
-  </si>
-  <si>
-    <t>0.7308411505339566</t>
+    <t>0.577471264367816</t>
+  </si>
+  <si>
+    <t>0.6385875706214689</t>
+  </si>
+  <si>
+    <t>0.6986933000416146</t>
+  </si>
+  <si>
+    <t>0.6834593837535013</t>
+  </si>
+  <si>
+    <t>0.7007213431028467</t>
+  </si>
+  <si>
+    <t>0.7013502129285822</t>
+  </si>
+  <si>
+    <t>0.6935023159460134</t>
+  </si>
+  <si>
+    <t>0.7138434962283556</t>
+  </si>
+  <si>
+    <t>0.7190375924740864</t>
+  </si>
+  <si>
+    <t>0.7137408440608228</t>
   </si>
   <si>
     <t>0.6222222222222221</t>
@@ -223,7 +223,34 @@
     <t>0.6441528604070238</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>0.05372811565981528</t>
+  </si>
+  <si>
+    <t>0.058787668883901065</t>
+  </si>
+  <si>
+    <t>0.03791633544465317</t>
+  </si>
+  <si>
+    <t>0.01662603620337259</t>
+  </si>
+  <si>
+    <t>0.020575894815449206</t>
+  </si>
+  <si>
+    <t>0.026973845240903436</t>
+  </si>
+  <si>
+    <t>0.0302766975614028</t>
+  </si>
+  <si>
+    <t>0.015069492509101211</t>
+  </si>
+  <si>
+    <t>0.01379164886481496</t>
+  </si>
+  <si>
+    <t>0.01476413309692962</t>
   </si>
   <si>
     <t>0.04036867138796654</t>
@@ -286,34 +313,34 @@
     <t>0.03965072825638376</t>
   </si>
   <si>
-    <t>0.6523569023569024</t>
-  </si>
-  <si>
-    <t>0.6314771370951145</t>
-  </si>
-  <si>
-    <t>0.6651032826727538</t>
-  </si>
-  <si>
-    <t>0.7349119611414693</t>
-  </si>
-  <si>
-    <t>0.6922337573855125</t>
-  </si>
-  <si>
-    <t>0.7209429278326428</t>
-  </si>
-  <si>
-    <t>0.7114187670098214</t>
-  </si>
-  <si>
-    <t>0.6991655947985055</t>
-  </si>
-  <si>
-    <t>0.6863629511015495</t>
-  </si>
-  <si>
-    <t>0.6888657636426202</t>
+    <t>0.5104473304473305</t>
+  </si>
+  <si>
+    <t>0.6743997422576617</t>
+  </si>
+  <si>
+    <t>0.6573084204443119</t>
+  </si>
+  <si>
+    <t>0.6756817650757085</t>
+  </si>
+  <si>
+    <t>0.7009550508593546</t>
+  </si>
+  <si>
+    <t>0.6883675150531181</t>
+  </si>
+  <si>
+    <t>0.6732775327614455</t>
+  </si>
+  <si>
+    <t>0.6968925687710029</t>
+  </si>
+  <si>
+    <t>0.6932141077341308</t>
+  </si>
+  <si>
+    <t>0.699201662458773</t>
   </si>
   <si>
     <t>0.6311901624945103</t>
@@ -376,34 +403,34 @@
     <t>0.5984404327491685</t>
   </si>
   <si>
-    <t>0.677844611528822</t>
-  </si>
-  <si>
-    <t>0.6699662305575037</t>
-  </si>
-  <si>
-    <t>0.6627926777352063</t>
-  </si>
-  <si>
-    <t>0.6902986771181682</t>
-  </si>
-  <si>
-    <t>0.6714118629908103</t>
-  </si>
-  <si>
-    <t>0.6944822447734328</t>
-  </si>
-  <si>
-    <t>0.7162628594775685</t>
-  </si>
-  <si>
-    <t>0.7146201959999735</t>
-  </si>
-  <si>
-    <t>0.7147720884250114</t>
-  </si>
-  <si>
-    <t>0.7553789587687892</t>
+    <t>0.6515709325189307</t>
+  </si>
+  <si>
+    <t>0.643723394816452</t>
+  </si>
+  <si>
+    <t>0.724211603632925</t>
+  </si>
+  <si>
+    <t>0.6884858086358028</t>
+  </si>
+  <si>
+    <t>0.7052614705877054</t>
+  </si>
+  <si>
+    <t>0.712618453729106</t>
+  </si>
+  <si>
+    <t>0.7039542915955531</t>
+  </si>
+  <si>
+    <t>0.7259128010964196</t>
+  </si>
+  <si>
+    <t>0.7336253558261093</t>
+  </si>
+  <si>
+    <t>0.7230628826897461</t>
   </si>
   <si>
     <t>0.6212876261615757</t>
@@ -466,34 +493,34 @@
     <t>0.6579780923664195</t>
   </si>
   <si>
-    <t>0.6210543833115526</t>
-  </si>
-  <si>
-    <t>0.6496632996632997</t>
-  </si>
-  <si>
-    <t>0.6609197806931121</t>
-  </si>
-  <si>
-    <t>0.7119039614077979</t>
-  </si>
-  <si>
-    <t>0.6802715355680982</t>
-  </si>
-  <si>
-    <t>0.7074315057985346</t>
-  </si>
-  <si>
-    <t>0.7109824590709213</t>
-  </si>
-  <si>
-    <t>0.7062405888575597</t>
-  </si>
-  <si>
-    <t>0.6999058409561312</t>
-  </si>
-  <si>
-    <t>0.7202609050842339</t>
+    <t>0.521600884047017</t>
+  </si>
+  <si>
+    <t>0.6513414970327528</t>
+  </si>
+  <si>
+    <t>0.6867374677570919</t>
+  </si>
+  <si>
+    <t>0.6807022397286987</t>
+  </si>
+  <si>
+    <t>0.7013519411386531</t>
+  </si>
+  <si>
+    <t>0.6980990765088531</t>
+  </si>
+  <si>
+    <t>0.6879920817404402</t>
+  </si>
+  <si>
+    <t>0.7094824348125062</t>
+  </si>
+  <si>
+    <t>0.7118987823350403</t>
+  </si>
+  <si>
+    <t>0.7103208967286043</t>
   </si>
   <si>
     <t>0.6165862827895155</t>
@@ -556,34 +583,34 @@
     <t>0.6211668106395095</t>
   </si>
   <si>
-    <t>0.6297960222378828</t>
-  </si>
-  <si>
-    <t>0.6579031923133046</t>
-  </si>
-  <si>
-    <t>0.6610709772660296</t>
-  </si>
-  <si>
-    <t>0.6980943337105489</t>
-  </si>
-  <si>
-    <t>0.6721337648085491</t>
-  </si>
-  <si>
-    <t>0.6985653559851975</t>
-  </si>
-  <si>
-    <t>0.7113495061980135</t>
-  </si>
-  <si>
-    <t>0.7066939907353856</t>
-  </si>
-  <si>
-    <t>0.7061697929846614</t>
-  </si>
-  <si>
-    <t>0.7311986939914367</t>
+    <t>0.5782188343057908</t>
+  </si>
+  <si>
+    <t>0.636747938004484</t>
+  </si>
+  <si>
+    <t>0.6993365555019089</t>
+  </si>
+  <si>
+    <t>0.683621685871013</t>
+  </si>
+  <si>
+    <t>0.700373562209435</t>
+  </si>
+  <si>
+    <t>0.7012623597885236</t>
+  </si>
+  <si>
+    <t>0.6935402950965107</t>
+  </si>
+  <si>
+    <t>0.7138159034021957</t>
+  </si>
+  <si>
+    <t>0.7192973140475384</t>
+  </si>
+  <si>
+    <t>0.7138312697519599</t>
   </si>
   <si>
     <t>0.6223759332454984</t>
@@ -646,34 +673,34 @@
     <t>0.6439536445404405</t>
   </si>
   <si>
-    <t>0.567816091954023</t>
-  </si>
-  <si>
-    <t>0.6407093534212178</t>
-  </si>
-  <si>
-    <t>0.7063392980995977</t>
-  </si>
-  <si>
-    <t>0.6986263431926444</t>
-  </si>
-  <si>
-    <t>0.6577728063634104</t>
-  </si>
-  <si>
-    <t>0.7006861379823947</t>
-  </si>
-  <si>
-    <t>0.7461259085135851</t>
-  </si>
-  <si>
-    <t>0.7327114069209296</t>
-  </si>
-  <si>
-    <t>0.730181896063763</t>
-  </si>
-  <si>
-    <t>0.7457669984169151</t>
+    <t>0.5262835249042146</t>
+  </si>
+  <si>
+    <t>0.6070433145009417</t>
+  </si>
+  <si>
+    <t>0.7002163961714524</t>
+  </si>
+  <si>
+    <t>0.6952474323062557</t>
+  </si>
+  <si>
+    <t>0.7031248212685316</t>
+  </si>
+  <si>
+    <t>0.7049452821918455</t>
+  </si>
+  <si>
+    <t>0.7220540861336435</t>
+  </si>
+  <si>
+    <t>0.7375958664100494</t>
+  </si>
+  <si>
+    <t>0.7309993604657988</t>
+  </si>
+  <si>
+    <t>0.748028239914712</t>
   </si>
   <si>
     <t>0.5733333333333334</t>
@@ -736,6 +763,36 @@
     <t>0.6827843827753106</t>
   </si>
   <si>
+    <t>0.044054705486451864</t>
+  </si>
+  <si>
+    <t>0.04247935565896476</t>
+  </si>
+  <si>
+    <t>0.033323844258496944</t>
+  </si>
+  <si>
+    <t>0.03938326650099852</t>
+  </si>
+  <si>
+    <t>0.023957835122706685</t>
+  </si>
+  <si>
+    <t>0.026447929183918167</t>
+  </si>
+  <si>
+    <t>0.03381693931734277</t>
+  </si>
+  <si>
+    <t>0.01620151117057066</t>
+  </si>
+  <si>
+    <t>0.017738196832654585</t>
+  </si>
+  <si>
+    <t>0.017827236996636502</t>
+  </si>
+  <si>
     <t>0.06501661705923463</t>
   </si>
   <si>
@@ -796,34 +853,34 @@
     <t>0.04360488400558231</t>
   </si>
   <si>
-    <t>0.6978114478114478</t>
-  </si>
-  <si>
-    <t>0.6057537967650327</t>
-  </si>
-  <si>
-    <t>0.6402886101439053</t>
-  </si>
-  <si>
-    <t>0.6940163419880009</t>
-  </si>
-  <si>
-    <t>0.6680348689628278</t>
-  </si>
-  <si>
-    <t>0.6452410098506752</t>
-  </si>
-  <si>
-    <t>0.7220345859323496</t>
-  </si>
-  <si>
-    <t>0.7282162014383498</t>
-  </si>
-  <si>
-    <t>0.7210229518349651</t>
-  </si>
-  <si>
-    <t>0.7215732236935625</t>
+    <t>0.4714285714285714</t>
+  </si>
+  <si>
+    <t>0.6606588538520397</t>
+  </si>
+  <si>
+    <t>0.7146258755660326</t>
+  </si>
+  <si>
+    <t>0.6940916155180525</t>
+  </si>
+  <si>
+    <t>0.6775090936705643</t>
+  </si>
+  <si>
+    <t>0.6573656960097582</t>
+  </si>
+  <si>
+    <t>0.7033210182804849</t>
+  </si>
+  <si>
+    <t>0.7448504890421856</t>
+  </si>
+  <si>
+    <t>0.7000414502870224</t>
+  </si>
+  <si>
+    <t>0.7314873518298348</t>
   </si>
   <si>
     <t>0.37193675889328065</t>
@@ -886,34 +943,34 @@
     <t>0.6448322285073571</t>
   </si>
   <si>
-    <t>0.5568566080579337</t>
-  </si>
-  <si>
-    <t>0.6566679993546984</t>
-  </si>
-  <si>
-    <t>0.7504626156539134</t>
-  </si>
-  <si>
-    <t>0.7086440902462746</t>
-  </si>
-  <si>
-    <t>0.6581664332399626</t>
-  </si>
-  <si>
-    <t>0.7395701108572394</t>
-  </si>
-  <si>
-    <t>0.762100510145522</t>
-  </si>
-  <si>
-    <t>0.7381807604247106</t>
-  </si>
-  <si>
-    <t>0.7354438460586685</t>
-  </si>
-  <si>
-    <t>0.7661397816182612</t>
+    <t>0.4257777777777778</t>
+  </si>
+  <si>
+    <t>0.6116083573593941</t>
+  </si>
+  <si>
+    <t>0.6990729102268434</t>
+  </si>
+  <si>
+    <t>0.7033604144654184</t>
+  </si>
+  <si>
+    <t>0.7194553827212172</t>
+  </si>
+  <si>
+    <t>0.7313388490805183</t>
+  </si>
+  <si>
+    <t>0.7334412324879931</t>
+  </si>
+  <si>
+    <t>0.7372551539563255</t>
+  </si>
+  <si>
+    <t>0.7495320327045787</t>
+  </si>
+  <si>
+    <t>0.7592153751663128</t>
   </si>
   <si>
     <t>0.37456704601682334</t>
@@ -976,34 +1033,34 @@
     <t>0.6986466048979155</t>
   </si>
   <si>
-    <t>0.6141152959889067</t>
-  </si>
-  <si>
-    <t>0.6283445010274279</t>
-  </si>
-  <si>
-    <t>0.6832958927446896</t>
-  </si>
-  <si>
-    <t>0.7004571140625563</t>
-  </si>
-  <si>
-    <t>0.6627629741355231</t>
-  </si>
-  <si>
-    <t>0.6826491756293956</t>
-  </si>
-  <si>
-    <t>0.7390773659438561</t>
-  </si>
-  <si>
-    <t>0.7326876891634093</t>
-  </si>
-  <si>
-    <t>0.7275047785813546</t>
-  </si>
-  <si>
-    <t>0.74053707849019</t>
+    <t>0.42054712322071175</t>
+  </si>
+  <si>
+    <t>0.6298505647971797</t>
+  </si>
+  <si>
+    <t>0.706136153844736</t>
+  </si>
+  <si>
+    <t>0.6950366882474965</t>
+  </si>
+  <si>
+    <t>0.6949025036555547</t>
+  </si>
+  <si>
+    <t>0.6915995402158198</t>
+  </si>
+  <si>
+    <t>0.7177477412826778</t>
+  </si>
+  <si>
+    <t>0.7401673985935722</t>
+  </si>
+  <si>
+    <t>0.7230137005774945</t>
+  </si>
+  <si>
+    <t>0.7444542249418367</t>
   </si>
   <si>
     <t>0.37295877311375186</t>
@@ -1066,34 +1123,34 @@
     <t>0.6666750081327993</t>
   </si>
   <si>
-    <t>0.5674242424242424</t>
-  </si>
-  <si>
-    <t>0.6411472422708377</t>
-  </si>
-  <si>
-    <t>0.7072069035249674</t>
-  </si>
-  <si>
-    <t>0.698524503223366</t>
-  </si>
-  <si>
-    <t>0.6579268323887296</t>
-  </si>
-  <si>
-    <t>0.7016749887074024</t>
-  </si>
-  <si>
-    <t>0.7466567822480482</t>
-  </si>
-  <si>
-    <t>0.7324796386489855</t>
-  </si>
-  <si>
-    <t>0.7300454907195154</t>
-  </si>
-  <si>
-    <t>0.7459319408849702</t>
+    <t>0.529047619047619</t>
+  </si>
+  <si>
+    <t>0.6061557940454906</t>
+  </si>
+  <si>
+    <t>0.7000683367361419</t>
+  </si>
+  <si>
+    <t>0.6958635980248767</t>
+  </si>
+  <si>
+    <t>0.7029506020720351</t>
+  </si>
+  <si>
+    <t>0.7051411171957295</t>
+  </si>
+  <si>
+    <t>0.7221292770684309</t>
+  </si>
+  <si>
+    <t>0.7376269889524838</t>
+  </si>
+  <si>
+    <t>0.731223605400393</t>
+  </si>
+  <si>
+    <t>0.7482210093802124</t>
   </si>
   <si>
     <t>0.5756916996047431</t>
@@ -1156,34 +1213,34 @@
     <t>0.6828445170381365</t>
   </si>
   <si>
-    <t>0.5066411238825032</t>
-  </si>
-  <si>
-    <t>0.5642812303829253</t>
-  </si>
-  <si>
-    <t>0.5613399916770704</t>
-  </si>
-  <si>
-    <t>0.6367643102438715</t>
-  </si>
-  <si>
-    <t>0.6324732786477752</t>
-  </si>
-  <si>
-    <t>0.6642113636663047</t>
-  </si>
-  <si>
-    <t>0.6664733402859205</t>
-  </si>
-  <si>
-    <t>0.6777293016495124</t>
-  </si>
-  <si>
-    <t>0.7050545382226506</t>
-  </si>
-  <si>
-    <t>0.7037899273152979</t>
+    <t>0.42091954022988504</t>
+  </si>
+  <si>
+    <t>0.5644067796610169</t>
+  </si>
+  <si>
+    <t>0.63076987099459</t>
+  </si>
+  <si>
+    <t>0.6146498599439776</t>
+  </si>
+  <si>
+    <t>0.6603108730305332</t>
+  </si>
+  <si>
+    <t>0.6583918710335759</t>
+  </si>
+  <si>
+    <t>0.6807383010236584</t>
+  </si>
+  <si>
+    <t>0.7228141052335699</t>
+  </si>
+  <si>
+    <t>0.7170566239867112</t>
+  </si>
+  <si>
+    <t>0.7283379526080911</t>
   </si>
   <si>
     <t>0.49777777777777776</t>
@@ -1246,6 +1303,36 @@
     <t>0.5890191593771161</t>
   </si>
   <si>
+    <t>0.06637209771012839</t>
+  </si>
+  <si>
+    <t>0.038107752968206746</t>
+  </si>
+  <si>
+    <t>0.05963980269969053</t>
+  </si>
+  <si>
+    <t>0.04968966612169335</t>
+  </si>
+  <si>
+    <t>0.03512184960169145</t>
+  </si>
+  <si>
+    <t>0.04309288590469189</t>
+  </si>
+  <si>
+    <t>0.04068295285022475</t>
+  </si>
+  <si>
+    <t>0.005817628142167685</t>
+  </si>
+  <si>
+    <t>0.027971595377144248</t>
+  </si>
+  <si>
+    <t>0.028455889152260674</t>
+  </si>
+  <si>
     <t>0.04734950167258337</t>
   </si>
   <si>
@@ -1306,34 +1393,34 @@
     <t>0.029343036306064864</t>
   </si>
   <si>
-    <t>0.47272727272727266</t>
-  </si>
-  <si>
-    <t>0.6758447544964398</t>
-  </si>
-  <si>
-    <t>0.6846314217552533</t>
-  </si>
-  <si>
-    <t>0.7524502691076739</t>
-  </si>
-  <si>
-    <t>0.7286046901668294</t>
-  </si>
-  <si>
-    <t>0.6982773626391966</t>
-  </si>
-  <si>
-    <t>0.6627550416687797</t>
-  </si>
-  <si>
-    <t>0.6488342116311596</t>
-  </si>
-  <si>
-    <t>0.6962518386322613</t>
-  </si>
-  <si>
-    <t>0.6746000906403898</t>
+    <t>0.23808080808080812</t>
+  </si>
+  <si>
+    <t>0.7935411380935122</t>
+  </si>
+  <si>
+    <t>0.7183727577777221</t>
+  </si>
+  <si>
+    <t>0.5696821296404931</t>
+  </si>
+  <si>
+    <t>0.6891666645077292</t>
+  </si>
+  <si>
+    <t>0.7185703286823661</t>
+  </si>
+  <si>
+    <t>0.6568699084508687</t>
+  </si>
+  <si>
+    <t>0.7227135755228766</t>
+  </si>
+  <si>
+    <t>0.7235602595609357</t>
+  </si>
+  <si>
+    <t>0.702097999472025</t>
   </si>
   <si>
     <t>0.30443126921387786</t>
@@ -1396,34 +1483,34 @@
     <t>0.6333187850203645</t>
   </si>
   <si>
-    <t>0.5038003220611916</t>
-  </si>
-  <si>
-    <t>0.5564248546066729</t>
-  </si>
-  <si>
-    <t>0.554161883696839</t>
-  </si>
-  <si>
-    <t>0.6166958834552378</t>
-  </si>
-  <si>
-    <t>0.6199226202813518</t>
-  </si>
-  <si>
-    <t>0.6591500967309729</t>
-  </si>
-  <si>
-    <t>0.6719876541947679</t>
-  </si>
-  <si>
-    <t>0.6931900032740369</t>
-  </si>
-  <si>
-    <t>0.7082259146228912</t>
-  </si>
-  <si>
-    <t>0.7248367680672215</t>
+    <t>0.23579710144927538</t>
+  </si>
+  <si>
+    <t>0.560390001501995</t>
+  </si>
+  <si>
+    <t>0.6252060439560438</t>
+  </si>
+  <si>
+    <t>0.6222877601016475</t>
+  </si>
+  <si>
+    <t>0.6549022046492711</t>
+  </si>
+  <si>
+    <t>0.6513839996514506</t>
+  </si>
+  <si>
+    <t>0.693293433513201</t>
+  </si>
+  <si>
+    <t>0.7278718138150562</t>
+  </si>
+  <si>
+    <t>0.7170783520129234</t>
+  </si>
+  <si>
+    <t>0.7423472908565113</t>
   </si>
   <si>
     <t>0.3940217293705666</t>
@@ -1486,34 +1573,34 @@
     <t>0.5848333239352184</t>
   </si>
   <si>
-    <t>0.4806910200976728</t>
-  </si>
-  <si>
-    <t>0.6091659160090321</t>
-  </si>
-  <si>
-    <t>0.6090239037406826</t>
-  </si>
-  <si>
-    <t>0.6773489252357248</t>
-  </si>
-  <si>
-    <t>0.6674077942948976</t>
-  </si>
-  <si>
-    <t>0.6764871981289596</t>
-  </si>
-  <si>
-    <t>0.6652673545782608</t>
-  </si>
-  <si>
-    <t>0.66409822691451</t>
-  </si>
-  <si>
-    <t>0.7019261442783282</t>
-  </si>
-  <si>
-    <t>0.6971237490658105</t>
+    <t>0.22646658971399258</t>
+  </si>
+  <si>
+    <t>0.6386976437748406</t>
+  </si>
+  <si>
+    <t>0.6634102693232411</t>
+  </si>
+  <si>
+    <t>0.5729734892393841</t>
+  </si>
+  <si>
+    <t>0.6706265995281008</t>
+  </si>
+  <si>
+    <t>0.6798707100765814</t>
+  </si>
+  <si>
+    <t>0.6731316573643344</t>
+  </si>
+  <si>
+    <t>0.7226421787929862</t>
+  </si>
+  <si>
+    <t>0.7195546497481398</t>
+  </si>
+  <si>
+    <t>0.7209616106662772</t>
   </si>
   <si>
     <t>0.3324668038634087</t>
@@ -1576,34 +1663,34 @@
     <t>0.6051194250041421</t>
   </si>
   <si>
-    <t>0.5070785373110954</t>
-  </si>
-  <si>
-    <t>0.5633650057807361</t>
-  </si>
-  <si>
-    <t>0.5615266736078351</t>
-  </si>
-  <si>
-    <t>0.6354140429245104</t>
-  </si>
-  <si>
-    <t>0.6323722241892127</t>
-  </si>
-  <si>
-    <t>0.6641317324585049</t>
-  </si>
-  <si>
-    <t>0.6665451524424189</t>
-  </si>
-  <si>
-    <t>0.6777986053471124</t>
-  </si>
-  <si>
-    <t>0.7049658764128716</t>
-  </si>
-  <si>
-    <t>0.7038859348118772</t>
+    <t>0.4189437856829161</t>
+  </si>
+  <si>
+    <t>0.5601265425751434</t>
+  </si>
+  <si>
+    <t>0.6309903425653123</t>
+  </si>
+  <si>
+    <t>0.6158091875359221</t>
+  </si>
+  <si>
+    <t>0.660262885258999</t>
+  </si>
+  <si>
+    <t>0.6579610557755601</t>
+  </si>
+  <si>
+    <t>0.6809952796612477</t>
+  </si>
+  <si>
+    <t>0.7230634036470626</t>
+  </si>
+  <si>
+    <t>0.7171671418980515</t>
+  </si>
+  <si>
+    <t>0.7285305048595723</t>
   </si>
   <si>
     <t>0.500149319279754</t>
@@ -1666,34 +1753,34 @@
     <t>0.5890715505569384</t>
   </si>
   <si>
-    <t>0.5717752234993614</t>
-  </si>
-  <si>
-    <t>0.5512241054613937</t>
-  </si>
-  <si>
-    <t>0.6543071161048689</t>
-  </si>
-  <si>
-    <t>0.6584136479450539</t>
-  </si>
-  <si>
-    <t>0.7024210787969176</t>
-  </si>
-  <si>
-    <t>0.7094736095709041</t>
-  </si>
-  <si>
-    <t>0.7312500887597165</t>
-  </si>
-  <si>
-    <t>0.7206858943048763</t>
-  </si>
-  <si>
-    <t>0.7145164991509478</t>
-  </si>
-  <si>
-    <t>0.7440127150108502</t>
+    <t>0.5302681992337165</t>
+  </si>
+  <si>
+    <t>0.5656873822975518</t>
+  </si>
+  <si>
+    <t>0.702521847690387</t>
+  </si>
+  <si>
+    <t>0.6550233426704015</t>
+  </si>
+  <si>
+    <t>0.7184602343862242</t>
+  </si>
+  <si>
+    <t>0.7219350060383265</t>
+  </si>
+  <si>
+    <t>0.724208153011669</t>
+  </si>
+  <si>
+    <t>0.7296492624378812</t>
+  </si>
+  <si>
+    <t>0.7374795150666403</t>
+  </si>
+  <si>
+    <t>0.7485571421353276</t>
   </si>
   <si>
     <t>0.508888888888889</t>
@@ -1756,6 +1843,36 @@
     <t>0.7037678143236509</t>
   </si>
   <si>
+    <t>0.05018601355563744</t>
+  </si>
+  <si>
+    <t>0.041914727558226755</t>
+  </si>
+  <si>
+    <t>0.035399647814971444</t>
+  </si>
+  <si>
+    <t>0.039403131230415014</t>
+  </si>
+  <si>
+    <t>0.014521214546008566</t>
+  </si>
+  <si>
+    <t>0.029427668124157112</t>
+  </si>
+  <si>
+    <t>0.04437610517304121</t>
+  </si>
+  <si>
+    <t>0.03674835023606384</t>
+  </si>
+  <si>
+    <t>0.03522674454881832</t>
+  </si>
+  <si>
+    <t>0.01851600069821084</t>
+  </si>
+  <si>
     <t>0.06718318425702655</t>
   </si>
   <si>
@@ -1816,34 +1933,34 @@
     <t>0.026265165826242953</t>
   </si>
   <si>
-    <t>0.5409090909090909</t>
-  </si>
-  <si>
-    <t>0.571963616907437</t>
-  </si>
-  <si>
-    <t>0.6580552489631758</t>
-  </si>
-  <si>
-    <t>0.6469544009138342</t>
-  </si>
-  <si>
-    <t>0.7021330863419449</t>
-  </si>
-  <si>
-    <t>0.5716776188151653</t>
-  </si>
-  <si>
-    <t>0.7085754855722907</t>
-  </si>
-  <si>
-    <t>0.7294840574428875</t>
-  </si>
-  <si>
-    <t>0.6997131529945767</t>
-  </si>
-  <si>
-    <t>0.7223047824392399</t>
+    <t>0.68992784992785</t>
+  </si>
+  <si>
+    <t>0.5244605533405824</t>
+  </si>
+  <si>
+    <t>0.7444793386564114</t>
+  </si>
+  <si>
+    <t>0.6486175045889665</t>
+  </si>
+  <si>
+    <t>0.6565551841202877</t>
+  </si>
+  <si>
+    <t>0.7118392375637701</t>
+  </si>
+  <si>
+    <t>0.704142168342708</t>
+  </si>
+  <si>
+    <t>0.7391934019708598</t>
+  </si>
+  <si>
+    <t>0.7189381912904996</t>
+  </si>
+  <si>
+    <t>0.7354965095123737</t>
   </si>
   <si>
     <t>0.4852349582784365</t>
@@ -1906,34 +2023,34 @@
     <t>0.7210844166621191</t>
   </si>
   <si>
-    <t>0.640096618357488</t>
-  </si>
-  <si>
-    <t>0.5529780489293308</t>
-  </si>
-  <si>
-    <t>0.6601541804556309</t>
-  </si>
-  <si>
-    <t>0.6869336994099392</t>
-  </si>
-  <si>
-    <t>0.7283669336279113</t>
-  </si>
-  <si>
-    <t>0.8049621858868733</t>
-  </si>
-  <si>
-    <t>0.7468429643832869</t>
-  </si>
-  <si>
-    <t>0.7234840675207647</t>
-  </si>
-  <si>
-    <t>0.7235798266296455</t>
-  </si>
-  <si>
-    <t>0.7610203978970514</t>
+    <t>0.5213482190324296</t>
+  </si>
+  <si>
+    <t>0.5737594523975597</t>
+  </si>
+  <si>
+    <t>0.6952654867725189</t>
+  </si>
+  <si>
+    <t>0.6743412617702</t>
+  </si>
+  <si>
+    <t>0.757777835622424</t>
+  </si>
+  <si>
+    <t>0.7304192849462019</t>
+  </si>
+  <si>
+    <t>0.7336316758145023</t>
+  </si>
+  <si>
+    <t>0.726662817131259</t>
+  </si>
+  <si>
+    <t>0.7492520251907379</t>
+  </si>
+  <si>
+    <t>0.7629085622126766</t>
   </si>
   <si>
     <t>0.5006424148606812</t>
@@ -1996,34 +2113,34 @@
     <t>0.6977958324705401</t>
   </si>
   <si>
-    <t>0.5514002126905352</t>
-  </si>
-  <si>
-    <t>0.5617919330808864</t>
-  </si>
-  <si>
-    <t>0.6522516240089461</t>
-  </si>
-  <si>
-    <t>0.6487069330633024</t>
-  </si>
-  <si>
-    <t>0.6947351316217095</t>
-  </si>
-  <si>
-    <t>0.6620606087200351</t>
-  </si>
-  <si>
-    <t>0.7221223331552925</t>
-  </si>
-  <si>
-    <t>0.7252591844871307</t>
-  </si>
-  <si>
-    <t>0.7092506576043922</t>
-  </si>
-  <si>
-    <t>0.7371430781285205</t>
+    <t>0.5868113930237596</t>
+  </si>
+  <si>
+    <t>0.5366180940339499</t>
+  </si>
+  <si>
+    <t>0.7115104693038939</t>
+  </si>
+  <si>
+    <t>0.6501011617068779</t>
+  </si>
+  <si>
+    <t>0.6985600225823658</t>
+  </si>
+  <si>
+    <t>0.7200678829078011</t>
+  </si>
+  <si>
+    <t>0.7172787423181641</t>
+  </si>
+  <si>
+    <t>0.732313162272359</t>
+  </si>
+  <si>
+    <t>0.7329944064775666</t>
+  </si>
+  <si>
+    <t>0.7435172825930055</t>
   </si>
   <si>
     <t>0.4800794163909258</t>
@@ -2086,34 +2203,34 @@
     <t>0.7075437651175237</t>
   </si>
   <si>
-    <t>0.572177198339989</t>
-  </si>
-  <si>
-    <t>0.5510269225156866</t>
-  </si>
-  <si>
-    <t>0.655059813854966</t>
-  </si>
-  <si>
-    <t>0.6571676998399939</t>
-  </si>
-  <si>
-    <t>0.7037587841245356</t>
-  </si>
-  <si>
-    <t>0.7112834187402566</t>
-  </si>
-  <si>
-    <t>0.731047210936342</t>
-  </si>
-  <si>
-    <t>0.7203074790764953</t>
-  </si>
-  <si>
-    <t>0.7144528511143032</t>
-  </si>
-  <si>
-    <t>0.7440719420408497</t>
+    <t>0.5303262438045045</t>
+  </si>
+  <si>
+    <t>0.5656985803972157</t>
+  </si>
+  <si>
+    <t>0.7009052954015301</t>
+  </si>
+  <si>
+    <t>0.65490939198304</t>
+  </si>
+  <si>
+    <t>0.7185587508238608</t>
+  </si>
+  <si>
+    <t>0.7217944037870112</t>
+  </si>
+  <si>
+    <t>0.7241407476083894</t>
+  </si>
+  <si>
+    <t>0.7296987227261942</t>
+  </si>
+  <si>
+    <t>0.7376114714385331</t>
+  </si>
+  <si>
+    <t>0.7488349365057899</t>
   </si>
   <si>
     <t>0.5099802371541502</t>
@@ -2634,70 +2751,70 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="N2" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="O2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="P2" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="R2" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="S2" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="T2" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="U2" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="V2" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>609</v>
       </c>
       <c r="X2" t="s">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="Y2" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="Z2" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="AA2" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -2714,73 +2831,73 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="L3" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="N3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="O3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="P3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>430</v>
       </c>
       <c r="R3" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="S3" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="T3" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="U3" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="V3" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="W3" t="s">
-        <v>69</v>
+        <v>610</v>
       </c>
       <c r="X3" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="Y3" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="Z3" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="AA3" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -2797,73 +2914,73 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="L4" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="O4" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="P4" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="R4" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="S4" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="T4" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="U4" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="V4" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>611</v>
       </c>
       <c r="X4" t="s">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="Y4" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="Z4" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="AA4" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2880,73 +2997,73 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="L5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="N5" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="O5" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="P5" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="R5" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="S5" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="T5" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="U5" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="V5" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>612</v>
       </c>
       <c r="X5" t="s">
-        <v>603</v>
+        <v>642</v>
       </c>
       <c r="Y5" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="Z5" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="AA5" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -2963,73 +3080,73 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="L6" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="N6" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="O6" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="P6" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>433</v>
       </c>
       <c r="R6" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="S6" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="T6" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="U6" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="V6" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>613</v>
       </c>
       <c r="X6" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="Y6" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="Z6" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="AA6" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -3046,73 +3163,73 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="J7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="L7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="O7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="P7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="Q7" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
       <c r="R7" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="S7" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="T7" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="U7" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="V7" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="W7" t="s">
-        <v>69</v>
+        <v>614</v>
       </c>
       <c r="X7" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="Y7" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="Z7" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="AA7" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -3129,73 +3246,73 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="L8" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="M8" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="N8" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="O8" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="P8" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="R8" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="S8" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="T8" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="U8" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="V8" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="W8" t="s">
-        <v>69</v>
+        <v>615</v>
       </c>
       <c r="X8" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="Y8" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="Z8" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="AA8" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -3212,73 +3329,73 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="J9" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="L9" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="M9" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="N9" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="O9" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P9" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>436</v>
       </c>
       <c r="R9" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="S9" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="T9" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="U9" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="V9" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="W9" t="s">
-        <v>69</v>
+        <v>616</v>
       </c>
       <c r="X9" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="Y9" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="Z9" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="AA9" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -3295,73 +3412,73 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="L10" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="N10" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="O10" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="P10" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>437</v>
       </c>
       <c r="R10" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="S10" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="T10" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="U10" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="V10" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="W10" t="s">
-        <v>69</v>
+        <v>617</v>
       </c>
       <c r="X10" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="Y10" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="Z10" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="AA10" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -3378,73 +3495,73 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="L11" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="N11" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="O11" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="P11" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>438</v>
       </c>
       <c r="R11" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="S11" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="T11" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="U11" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="V11" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="W11" t="s">
-        <v>69</v>
+        <v>618</v>
       </c>
       <c r="X11" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="Y11" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="Z11" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="AA11" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -3461,73 +3578,73 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="K12" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L12" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="M12" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="N12" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="O12" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="P12" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="Q12" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="R12" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="S12" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="T12" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="U12" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="V12" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="W12" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="X12" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="Y12" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="Z12" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="AA12" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -3544,73 +3661,73 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K13" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="L13" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="M13" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="N13" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="O13" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="P13" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="Q13" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="R13" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="S13" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="T13" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="U13" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="V13" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="W13" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="X13" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="Y13" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="Z13" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="AA13" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -3627,73 +3744,73 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K14" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L14" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="M14" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="N14" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="O14" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="P14" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="Q14" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="R14" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="S14" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="T14" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="U14" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="V14" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="W14" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="X14" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="Y14" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="Z14" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="AA14" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -3710,73 +3827,73 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J15" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="N15" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="O15" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="P15" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="Q15" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="R15" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="S15" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="T15" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="U15" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="V15" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="W15" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="X15" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="Y15" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="Z15" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="AA15" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -3793,73 +3910,73 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M16" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="N16" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="O16" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="P16" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="Q16" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="R16" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="S16" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="T16" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="U16" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="V16" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="W16" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="X16" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="Y16" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="Z16" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="AA16" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -3876,73 +3993,73 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="J17" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K17" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L17" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="M17" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="N17" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="O17" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="P17" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="Q17" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="R17" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="S17" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="T17" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="U17" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="V17" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="W17" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="X17" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="Y17" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="Z17" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="AA17" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -3959,73 +4076,73 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L18" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="M18" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="N18" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="O18" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="P18" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="Q18" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="R18" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="S18" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="T18" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="U18" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="V18" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="W18" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="X18" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="Y18" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="Z18" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="AA18" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4042,73 +4159,73 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L19" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="M19" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="N19" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="O19" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="P19" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="Q19" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="R19" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="S19" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="T19" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="U19" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="V19" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="W19" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="X19" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="Y19" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="Z19" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="AA19" t="s">
-        <v>707</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4125,73 +4242,73 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K20" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L20" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="M20" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="N20" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="O20" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P20" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="Q20" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="R20" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="S20" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="T20" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="U20" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="V20" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="W20" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="X20" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="Y20" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="Z20" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="AA20" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -4208,73 +4325,73 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="L21" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="N21" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="O21" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P21" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="Q21" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="R21" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="S21" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="T21" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="U21" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="V21" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="W21" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="X21" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="Y21" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="Z21" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="AA21" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -4291,73 +4408,73 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="L22" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="M22" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="N22" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="O22" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="P22" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="Q22" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="R22" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="S22" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="T22" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="U22" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="V22" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="W22" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="X22" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="Y22" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="Z22" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="AA22" t="s">
-        <v>710</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -4374,73 +4491,73 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="L23" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M23" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="N23" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="O23" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="P23" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="Q23" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="R23" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="S23" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="T23" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="U23" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="V23" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="W23" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="X23" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="Y23" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="Z23" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="AA23" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -4457,73 +4574,73 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="M24" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="N24" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="O24" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="P24" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="Q24" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="R24" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="S24" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="T24" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="U24" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="V24" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="W24" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="X24" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="Y24" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="Z24" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="AA24" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -4540,73 +4657,73 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="M25" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="N25" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="O25" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="P25" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Q25" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="R25" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="S25" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="T25" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="U25" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="V25" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="W25" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="X25" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="Y25" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="Z25" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="AA25" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -4623,73 +4740,73 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="M26" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="N26" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="O26" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="P26" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="Q26" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="R26" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="S26" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="T26" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="U26" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="V26" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="W26" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="X26" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="Y26" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="Z26" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="AA26" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -4706,73 +4823,73 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M27" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="N27" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="O27" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="P27" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="Q27" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="R27" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="S27" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="T27" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="U27" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="V27" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="W27" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="X27" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="Y27" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="Z27" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="AA27" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4789,73 +4906,73 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="N28" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="O28" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="P28" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="Q28" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="R28" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="S28" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="T28" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="U28" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="V28" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="W28" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="X28" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="Y28" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="Z28" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="AA28" t="s">
-        <v>716</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -4872,73 +4989,73 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="M29" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="N29" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="O29" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="P29" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="Q29" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="R29" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="S29" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="T29" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="U29" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="V29" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="W29" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="X29" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="Y29" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="Z29" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="AA29" t="s">
-        <v>717</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -4955,73 +5072,73 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="N30" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="O30" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="P30" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="Q30" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="R30" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="S30" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="T30" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="U30" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="V30" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="W30" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="X30" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="Y30" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="Z30" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="AA30" t="s">
-        <v>718</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5038,73 +5155,73 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="N31" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="O31" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="P31" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="Q31" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="R31" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="S31" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="T31" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="U31" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="V31" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="W31" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="X31" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="Y31" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="Z31" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="AA31" t="s">
-        <v>719</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
